--- a/data/pmatheis_poker_stats.xlsx
+++ b/data/pmatheis_poker_stats.xlsx
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>50.9%</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>505</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>50.9%</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>326</t>
         </is>
       </c>
     </row>
@@ -1423,13 +1423,13 @@
         <v>60.6</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>61.9</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="R2" s="7" t="n">
         <v>50</v>
@@ -1493,13 +1493,13 @@
         <v>62.5</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>63.6</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="R3" s="7" t="n">
         <v>75</v>
@@ -1563,13 +1563,13 @@
         <v>61.9</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>42.9</v>
+        <v>44.4</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>100</v>
+        <v>45.8</v>
       </c>
       <c r="R4" s="7" t="n">
         <v>44.4</v>
@@ -1633,13 +1633,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="R5" s="7" t="n">
         <v>75</v>
@@ -1703,13 +1703,13 @@
         <v>38.5</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>55</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="R6" s="7" t="n">
         <v>81.8</v>
@@ -1773,13 +1773,13 @@
         <v>70.2</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>33.3</v>
+        <v>36.8</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>41.7</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R7" s="7" t="n">
         <v>85.7</v>
@@ -1843,13 +1843,13 @@
         <v>70.2</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>58.3</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>42.9</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>50</v>
+        <v>42.9</v>
       </c>
       <c r="R8" s="7" t="n">
         <v>64.3</v>
@@ -1913,13 +1913,13 @@
         <v>60</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>71.40000000000001</v>
+        <v>41.7</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="R9" s="7" t="n">
         <v>28.6</v>
@@ -1983,13 +1983,13 @@
         <v>90.90000000000001</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>66.7</v>
+        <v>42.9</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>80</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R10" s="7" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>54.3</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>50</v>
+        <v>17.9</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>35.7</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="R11" s="7" t="n">
         <v>77.8</v>
@@ -2123,13 +2123,13 @@
         <v>55.7</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>38.5</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R12" s="7" t="n">
         <v>72.2</v>
@@ -2193,13 +2193,13 @@
         <v>41.4</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>100</v>
+        <v>58.8</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>31.6</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>100</v>
+        <v>26.7</v>
       </c>
       <c r="R13" s="7" t="n">
         <v>22.2</v>
@@ -2263,13 +2263,13 @@
         <v>68.8</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>50</v>
+        <v>21.1</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q14" s="7" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="R14" s="7" t="n">
         <v>100</v>
@@ -2333,7 +2333,7 @@
         <v>68.2</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>75</v>
@@ -2403,13 +2403,13 @@
         <v>63.4</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>28.6</v>
+        <v>16.7</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q16" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R16" s="7" t="n">
         <v>33.3</v>
@@ -2473,13 +2473,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>40</v>
+        <v>56.5</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>61.5</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>50</v>
+        <v>43.8</v>
       </c>
       <c r="R17" s="7" t="n">
         <v>50</v>
@@ -2543,13 +2543,13 @@
         <v>65.59999999999999</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>28.6</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="R18" s="7" t="n">
         <v>71.40000000000001</v>
@@ -2613,13 +2613,13 @@
         <v>75</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>66.7</v>
@@ -2683,13 +2683,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>33.3</v>
+        <v>27.8</v>
       </c>
       <c r="P20" s="7" t="n">
         <v>37.5</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>80</v>
@@ -2753,13 +2753,13 @@
         <v>60</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="R21" s="7" t="n">
         <v>83.3</v>
@@ -2994,13 +2994,13 @@
         <v>60.6</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>61.9</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="R2" s="7" t="n">
         <v>50</v>
@@ -3064,13 +3064,13 @@
         <v>62.5</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>63.6</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="R3" s="7" t="n">
         <v>75</v>
@@ -3134,13 +3134,13 @@
         <v>61.9</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>42.9</v>
+        <v>44.4</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>100</v>
+        <v>45.8</v>
       </c>
       <c r="R4" s="7" t="n">
         <v>44.4</v>
@@ -3204,13 +3204,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="R5" s="7" t="n">
         <v>75</v>
@@ -3274,13 +3274,13 @@
         <v>38.5</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>55</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="R6" s="7" t="n">
         <v>81.8</v>
@@ -3344,13 +3344,13 @@
         <v>70.2</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>33.3</v>
+        <v>36.8</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>41.7</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R7" s="7" t="n">
         <v>85.7</v>
@@ -3414,13 +3414,13 @@
         <v>70.2</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>58.3</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>42.9</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>50</v>
+        <v>42.9</v>
       </c>
       <c r="R8" s="7" t="n">
         <v>64.3</v>
@@ -3484,13 +3484,13 @@
         <v>60</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>71.40000000000001</v>
+        <v>41.7</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="R9" s="7" t="n">
         <v>28.6</v>
@@ -3554,13 +3554,13 @@
         <v>90.90000000000001</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>66.7</v>
+        <v>42.9</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>80</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R10" s="7" t="n">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>54.3</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>50</v>
+        <v>17.9</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>35.7</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="R11" s="7" t="n">
         <v>77.8</v>
@@ -3694,13 +3694,13 @@
         <v>55.7</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>38.5</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R12" s="7" t="n">
         <v>72.2</v>
@@ -3764,13 +3764,13 @@
         <v>41.4</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>100</v>
+        <v>58.8</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>31.6</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>100</v>
+        <v>26.7</v>
       </c>
       <c r="R13" s="7" t="n">
         <v>22.2</v>
@@ -3834,13 +3834,13 @@
         <v>68.8</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>50</v>
+        <v>21.1</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q14" s="7" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="R14" s="7" t="n">
         <v>100</v>
@@ -3904,7 +3904,7 @@
         <v>68.2</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>75</v>
@@ -3974,13 +3974,13 @@
         <v>63.4</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>28.6</v>
+        <v>16.7</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q16" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R16" s="7" t="n">
         <v>33.3</v>
@@ -4044,13 +4044,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>40</v>
+        <v>56.5</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>61.5</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>50</v>
+        <v>43.8</v>
       </c>
       <c r="R17" s="7" t="n">
         <v>50</v>
@@ -4114,13 +4114,13 @@
         <v>65.59999999999999</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>28.6</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="R18" s="7" t="n">
         <v>71.40000000000001</v>
@@ -4184,13 +4184,13 @@
         <v>75</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>66.7</v>
@@ -4254,13 +4254,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>33.3</v>
+        <v>27.8</v>
       </c>
       <c r="P20" s="7" t="n">
         <v>37.5</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>80</v>
@@ -4324,13 +4324,13 @@
         <v>60</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="R21" s="7" t="n">
         <v>83.3</v>
@@ -4394,13 +4394,13 @@
         <v>60.9</v>
       </c>
       <c r="O22" s="7" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q22" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R22" s="7" t="n">
         <v>33.3</v>
@@ -4464,13 +4464,13 @@
         <v>66.7</v>
       </c>
       <c r="O23" s="7" t="n">
-        <v>33.3</v>
+        <v>44.4</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="R23" s="7" t="n">
         <v>66.7</v>
@@ -4534,13 +4534,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>75</v>
+        <v>46.7</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>55.6</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>50</v>
+        <v>16.7</v>
       </c>
       <c r="R24" s="7" t="n">
         <v>40</v>
@@ -4604,13 +4604,13 @@
         <v>75.8</v>
       </c>
       <c r="O25" s="7" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q25" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R25" s="7" t="n">
         <v>0</v>
@@ -4674,13 +4674,13 @@
         <v>63.8</v>
       </c>
       <c r="O26" s="7" t="n">
-        <v>100</v>
+        <v>47.1</v>
       </c>
       <c r="P26" s="7" t="n">
         <v>14.3</v>
       </c>
       <c r="Q26" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R26" s="7" t="n">
         <v>57.1</v>
@@ -4744,13 +4744,13 @@
         <v>64.3</v>
       </c>
       <c r="O27" s="7" t="n">
-        <v>50</v>
+        <v>41.7</v>
       </c>
       <c r="P27" s="7" t="n">
         <v>57.1</v>
       </c>
       <c r="Q27" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R27" s="7" t="n">
         <v>75</v>
@@ -4814,13 +4814,13 @@
         <v>68</v>
       </c>
       <c r="O28" s="7" t="n">
-        <v>57.1</v>
+        <v>28</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>42.9</v>
       </c>
       <c r="Q28" s="7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="R28" s="7" t="n">
         <v>66.7</v>
@@ -4884,13 +4884,13 @@
         <v>47.8</v>
       </c>
       <c r="O29" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q29" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="R29" s="7" t="n">
         <v>25</v>
@@ -4954,13 +4954,13 @@
         <v>42.9</v>
       </c>
       <c r="O30" s="7" t="n">
-        <v>100</v>
+        <v>27.3</v>
       </c>
       <c r="P30" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q30" s="7" t="n">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="R30" s="7" t="n">
         <v>66.7</v>
@@ -5024,13 +5024,13 @@
         <v>52.6</v>
       </c>
       <c r="O31" s="7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="P31" s="7" t="n">
         <v>54.5</v>
       </c>
       <c r="Q31" s="7" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="R31" s="7" t="n">
         <v>75</v>
@@ -5094,7 +5094,7 @@
         <v>61.7</v>
       </c>
       <c r="O32" s="7" t="n">
-        <v>100</v>
+        <v>47.1</v>
       </c>
       <c r="P32" s="7" t="n">
         <v>42.9</v>
@@ -5164,7 +5164,7 @@
         <v>60</v>
       </c>
       <c r="O33" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>50</v>
@@ -5234,13 +5234,13 @@
         <v>64.7</v>
       </c>
       <c r="O34" s="7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q34" s="7" t="n">
-        <v>100</v>
+        <v>42.9</v>
       </c>
       <c r="R34" s="7" t="n">
         <v>100</v>
@@ -5374,13 +5374,13 @@
         <v>67.7</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>40</v>
+        <v>29.4</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>55.6</v>
       </c>
       <c r="Q36" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R36" s="7" t="n">
         <v>80</v>
@@ -5444,13 +5444,13 @@
         <v>51.5</v>
       </c>
       <c r="O37" s="7" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q37" s="7" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="R37" s="7" t="n">
         <v>42.9</v>
@@ -5514,13 +5514,13 @@
         <v>66.7</v>
       </c>
       <c r="O38" s="7" t="n">
-        <v>100</v>
+        <v>27.3</v>
       </c>
       <c r="P38" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q38" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R38" s="7" t="n">
         <v>0</v>
@@ -5584,13 +5584,13 @@
         <v>68</v>
       </c>
       <c r="O39" s="7" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="n">
         <v>60</v>
       </c>
       <c r="Q39" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R39" s="7" t="n">
         <v>33.3</v>
@@ -5654,13 +5654,13 @@
         <v>78.3</v>
       </c>
       <c r="O40" s="7" t="n">
-        <v>50</v>
+        <v>72.7</v>
       </c>
       <c r="P40" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q40" s="7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R40" s="7" t="n">
         <v>60</v>
@@ -5724,13 +5724,13 @@
         <v>60.7</v>
       </c>
       <c r="O41" s="7" t="n">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="P41" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q41" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R41" s="7" t="n">
         <v>66.7</v>
@@ -5794,13 +5794,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O42" s="7" t="n">
-        <v>50</v>
+        <v>35.7</v>
       </c>
       <c r="P42" s="7" t="n">
         <v>71.40000000000001</v>
       </c>
       <c r="Q42" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R42" s="7" t="n">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>40</v>
       </c>
       <c r="O43" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>50</v>
@@ -5934,13 +5934,13 @@
         <v>52</v>
       </c>
       <c r="O44" s="7" t="n">
-        <v>33.3</v>
+        <v>40.9</v>
       </c>
       <c r="P44" s="7" t="n">
         <v>38.5</v>
       </c>
       <c r="Q44" s="7" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="R44" s="7" t="n">
         <v>0</v>
@@ -6004,13 +6004,13 @@
         <v>57.7</v>
       </c>
       <c r="O45" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="P45" s="7" t="n">
         <v>62.5</v>
       </c>
       <c r="Q45" s="7" t="n">
-        <v>0</v>
+        <v>55.6</v>
       </c>
       <c r="R45" s="7" t="n">
         <v>25</v>
@@ -6074,13 +6074,13 @@
         <v>52.5</v>
       </c>
       <c r="O46" s="7" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>28.6</v>
       </c>
       <c r="Q46" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="R46" s="7" t="n">
         <v>25</v>
@@ -6144,13 +6144,13 @@
         <v>57.1</v>
       </c>
       <c r="O47" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P47" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q47" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R47" s="7" t="n">
         <v>50</v>
@@ -6214,13 +6214,13 @@
         <v>60</v>
       </c>
       <c r="O48" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="P48" s="7" t="n">
         <v>42.9</v>
       </c>
       <c r="Q48" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R48" s="7" t="n">
         <v>100</v>
@@ -6284,13 +6284,13 @@
         <v>84.2</v>
       </c>
       <c r="O49" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P49" s="7" t="n">
         <v>85.7</v>
       </c>
       <c r="Q49" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R49" s="7" t="n">
         <v>50</v>
@@ -6354,13 +6354,13 @@
         <v>57.1</v>
       </c>
       <c r="O50" s="7" t="n">
-        <v>66.7</v>
+        <v>36.4</v>
       </c>
       <c r="P50" s="7" t="n">
         <v>57.1</v>
       </c>
       <c r="Q50" s="7" t="n">
-        <v>100</v>
+        <v>14.3</v>
       </c>
       <c r="R50" s="7" t="n">
         <v>100</v>
@@ -6424,13 +6424,13 @@
         <v>73.90000000000001</v>
       </c>
       <c r="O51" s="7" t="n">
-        <v>60</v>
+        <v>41.7</v>
       </c>
       <c r="P51" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q51" s="7" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R51" s="7" t="n">
         <v>50</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R52" s="7" t="n">
         <v>50</v>
@@ -6570,7 +6570,7 @@
         <v>75</v>
       </c>
       <c r="Q53" s="7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="R53" s="7" t="n">
         <v>33.3</v>
@@ -6634,13 +6634,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="O54" s="7" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="P54" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q54" s="7" t="n">
-        <v>40</v>
+        <v>29.6</v>
       </c>
       <c r="R54" s="7" t="n">
         <v>60</v>
@@ -6710,7 +6710,7 @@
         <v>50</v>
       </c>
       <c r="Q55" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R55" s="7" t="n">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>85.7</v>
       </c>
       <c r="O56" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P56" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R56" s="7" t="n">
         <v>0</v>
@@ -6844,13 +6844,13 @@
         <v>50</v>
       </c>
       <c r="O57" s="7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="P57" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q57" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="R57" s="7" t="n">
         <v>0</v>
@@ -6914,13 +6914,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O58" s="7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P58" s="7" t="n">
         <v>42.9</v>
       </c>
       <c r="Q58" s="7" t="n">
-        <v>100</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R58" s="7" t="n">
         <v>50</v>
@@ -6984,13 +6984,13 @@
         <v>91.7</v>
       </c>
       <c r="O59" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P59" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R59" s="7" t="n">
         <v>0</v>
@@ -7054,13 +7054,13 @@
         <v>85.7</v>
       </c>
       <c r="O60" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q60" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R60" s="7" t="n">
         <v>100</v>
@@ -7124,13 +7124,13 @@
         <v>89.5</v>
       </c>
       <c r="O61" s="7" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="P61" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q61" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R61" s="7" t="n">
         <v>100</v>
@@ -7194,13 +7194,13 @@
         <v>47.1</v>
       </c>
       <c r="O62" s="7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="P62" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q62" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R62" s="7" t="n">
         <v>33.3</v>
@@ -7264,13 +7264,13 @@
         <v>76.90000000000001</v>
       </c>
       <c r="O63" s="7" t="n">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q63" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="R63" s="7" t="n">
         <v>100</v>
@@ -7334,13 +7334,13 @@
         <v>100</v>
       </c>
       <c r="O64" s="7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P64" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R64" s="7" t="n">
         <v>0</v>
@@ -7404,13 +7404,13 @@
         <v>68.2</v>
       </c>
       <c r="O65" s="7" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="P65" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q65" s="7" t="n">
-        <v>0</v>
+        <v>55.6</v>
       </c>
       <c r="R65" s="7" t="n">
         <v>0</v>
@@ -7474,13 +7474,13 @@
         <v>63.6</v>
       </c>
       <c r="O66" s="7" t="n">
-        <v>50</v>
+        <v>28.6</v>
       </c>
       <c r="P66" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R66" s="7" t="n">
         <v>33.3</v>
@@ -7544,13 +7544,13 @@
         <v>75</v>
       </c>
       <c r="O67" s="7" t="n">
-        <v>33.3</v>
+        <v>53.8</v>
       </c>
       <c r="P67" s="7" t="n">
         <v>80</v>
       </c>
       <c r="Q67" s="7" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R67" s="7" t="n">
         <v>100</v>
@@ -7614,13 +7614,13 @@
         <v>77.8</v>
       </c>
       <c r="O68" s="7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="P68" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q68" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R68" s="7" t="n">
         <v>100</v>
@@ -7684,13 +7684,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O69" s="7" t="n">
-        <v>100</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="P69" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R69" s="7" t="n">
         <v>66.7</v>
@@ -7754,13 +7754,13 @@
         <v>58.1</v>
       </c>
       <c r="O70" s="7" t="n">
-        <v>100</v>
+        <v>31.2</v>
       </c>
       <c r="P70" s="7" t="n">
         <v>61.5</v>
       </c>
       <c r="Q70" s="7" t="n">
-        <v>100</v>
+        <v>58.3</v>
       </c>
       <c r="R70" s="7" t="n">
         <v>50</v>
@@ -7824,13 +7824,13 @@
         <v>83.3</v>
       </c>
       <c r="O71" s="7" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="P71" s="7" t="n">
         <v>80</v>
       </c>
       <c r="Q71" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R71" s="7" t="n">
         <v>100</v>
@@ -7894,13 +7894,13 @@
         <v>91.7</v>
       </c>
       <c r="O72" s="7" t="n">
-        <v>33.3</v>
+        <v>42.9</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q72" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R72" s="7" t="n">
         <v>50</v>
@@ -7964,13 +7964,13 @@
         <v>66.7</v>
       </c>
       <c r="O73" s="7" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P73" s="7" t="n">
         <v>80</v>
       </c>
       <c r="Q73" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="R73" s="7" t="n">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="O74" s="7" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>0</v>
@@ -8104,13 +8104,13 @@
         <v>90</v>
       </c>
       <c r="O75" s="7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q75" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R75" s="7" t="n">
         <v>100</v>
@@ -8244,7 +8244,7 @@
         <v>72.7</v>
       </c>
       <c r="O77" s="7" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="P77" s="7" t="n">
         <v>50</v>
@@ -8314,13 +8314,13 @@
         <v>60</v>
       </c>
       <c r="O78" s="7" t="n">
-        <v>100</v>
+        <v>22.2</v>
       </c>
       <c r="P78" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q78" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R78" s="7" t="n">
         <v>50</v>
@@ -8384,13 +8384,13 @@
         <v>91.40000000000001</v>
       </c>
       <c r="O79" s="7" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="P79" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q79" s="7" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="R79" s="7" t="n">
         <v>85.7</v>
@@ -8454,13 +8454,13 @@
         <v>61.5</v>
       </c>
       <c r="O80" s="7" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="P80" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q80" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R80" s="7" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         <v>85.7</v>
       </c>
       <c r="O81" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P81" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q81" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="7" t="n">
         <v>100</v>
@@ -8734,13 +8734,13 @@
         <v>46.2</v>
       </c>
       <c r="O84" s="7" t="n">
-        <v>50</v>
+        <v>28.6</v>
       </c>
       <c r="P84" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q84" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R84" s="7" t="n">
         <v>66.7</v>
@@ -8804,13 +8804,13 @@
         <v>55.6</v>
       </c>
       <c r="O85" s="7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="P85" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q85" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R85" s="7" t="n">
         <v>0</v>
@@ -8874,13 +8874,13 @@
         <v>53.8</v>
       </c>
       <c r="O86" s="7" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="P86" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q86" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R86" s="7" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>53.3</v>
       </c>
       <c r="O87" s="7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q87" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R87" s="7" t="n">
         <v>66.7</v>
@@ -9014,13 +9014,13 @@
         <v>60.9</v>
       </c>
       <c r="O88" s="7" t="n">
-        <v>50</v>
+        <v>41.7</v>
       </c>
       <c r="P88" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q88" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R88" s="7" t="n">
         <v>100</v>
@@ -9084,13 +9084,13 @@
         <v>64.7</v>
       </c>
       <c r="O89" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P89" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q89" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R89" s="7" t="n">
         <v>50</v>
@@ -9224,13 +9224,13 @@
         <v>85.7</v>
       </c>
       <c r="O91" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P91" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q91" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R91" s="7" t="n">
         <v>0</v>
@@ -9294,13 +9294,13 @@
         <v>88.90000000000001</v>
       </c>
       <c r="O92" s="7" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q92" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R92" s="7" t="n">
         <v>100</v>
@@ -9370,7 +9370,7 @@
         <v>50</v>
       </c>
       <c r="Q93" s="7" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="R93" s="7" t="n">
         <v>50</v>
@@ -9434,7 +9434,7 @@
         <v>100</v>
       </c>
       <c r="O94" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>0</v>
@@ -9504,13 +9504,13 @@
         <v>69.2</v>
       </c>
       <c r="O95" s="7" t="n">
-        <v>33.3</v>
+        <v>41.7</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q95" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R95" s="7" t="n">
         <v>71.40000000000001</v>
@@ -9574,13 +9574,13 @@
         <v>66.7</v>
       </c>
       <c r="O96" s="7" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="P96" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q96" s="7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R96" s="7" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>36.4</v>
       </c>
       <c r="O97" s="7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="P97" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q97" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="R97" s="7" t="n">
         <v>100</v>
@@ -9714,13 +9714,13 @@
         <v>78.90000000000001</v>
       </c>
       <c r="O98" s="7" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="P98" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q98" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R98" s="7" t="n">
         <v>100</v>
@@ -9784,13 +9784,13 @@
         <v>60</v>
       </c>
       <c r="O99" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P99" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q99" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R99" s="7" t="n">
         <v>66.7</v>
@@ -9854,13 +9854,13 @@
         <v>76.90000000000001</v>
       </c>
       <c r="O100" s="7" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="P100" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q100" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R100" s="7" t="n">
         <v>100</v>
@@ -9924,13 +9924,13 @@
         <v>52.9</v>
       </c>
       <c r="O101" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P101" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q101" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R101" s="7" t="n">
         <v>50</v>
@@ -9994,13 +9994,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O102" s="7" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="P102" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q102" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R102" s="7" t="n">
         <v>66.7</v>
@@ -10064,13 +10064,13 @@
         <v>64</v>
       </c>
       <c r="O103" s="7" t="n">
-        <v>60</v>
+        <v>30.8</v>
       </c>
       <c r="P103" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q103" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R103" s="7" t="n">
         <v>50</v>
@@ -10134,13 +10134,13 @@
         <v>68.8</v>
       </c>
       <c r="O104" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P104" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q104" s="7" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="R104" s="7" t="n">
         <v>100</v>
@@ -10204,7 +10204,7 @@
         <v>80</v>
       </c>
       <c r="O105" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P105" s="7" t="n">
         <v>100</v>
@@ -10280,7 +10280,7 @@
         <v>75</v>
       </c>
       <c r="Q106" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R106" s="7" t="n">
         <v>100</v>
@@ -10344,13 +10344,13 @@
         <v>65</v>
       </c>
       <c r="O107" s="7" t="n">
-        <v>66.7</v>
+        <v>40</v>
       </c>
       <c r="P107" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q107" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="R107" s="7" t="n">
         <v>75</v>
@@ -10414,7 +10414,7 @@
         <v>50</v>
       </c>
       <c r="O108" s="7" t="n">
-        <v>25</v>
+        <v>14.3</v>
       </c>
       <c r="P108" s="7" t="n">
         <v>40</v>
@@ -10484,13 +10484,13 @@
         <v>75</v>
       </c>
       <c r="O109" s="7" t="n">
-        <v>100</v>
+        <v>55.6</v>
       </c>
       <c r="P109" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q109" s="7" t="n">
-        <v>100</v>
+        <v>42.9</v>
       </c>
       <c r="R109" s="7" t="n">
         <v>100</v>
@@ -10554,13 +10554,13 @@
         <v>63.2</v>
       </c>
       <c r="O110" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P110" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q110" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R110" s="7" t="n">
         <v>0</v>
@@ -10694,13 +10694,13 @@
         <v>25</v>
       </c>
       <c r="O112" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P112" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q112" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R112" s="7" t="n">
         <v>0</v>
@@ -10764,13 +10764,13 @@
         <v>62.5</v>
       </c>
       <c r="O113" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P113" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q113" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R113" s="7" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>50</v>
       </c>
       <c r="Q114" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R114" s="7" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>58.3</v>
       </c>
       <c r="O115" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P115" s="7" t="n">
         <v>66.7</v>
@@ -10974,13 +10974,13 @@
         <v>63.2</v>
       </c>
       <c r="O116" s="7" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="P116" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q116" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R116" s="7" t="n">
         <v>50</v>
@@ -11044,13 +11044,13 @@
         <v>57.1</v>
       </c>
       <c r="O117" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P117" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q117" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R117" s="7" t="n">
         <v>50</v>
@@ -11114,13 +11114,13 @@
         <v>100</v>
       </c>
       <c r="O118" s="7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P118" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q118" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R118" s="7" t="n">
         <v>0</v>
@@ -11184,13 +11184,13 @@
         <v>66.7</v>
       </c>
       <c r="O119" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P119" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q119" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R119" s="7" t="n">
         <v>100</v>
@@ -11254,13 +11254,13 @@
         <v>50</v>
       </c>
       <c r="O120" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P120" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q120" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R120" s="7" t="n">
         <v>100</v>
@@ -11324,13 +11324,13 @@
         <v>56.2</v>
       </c>
       <c r="O121" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P121" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q121" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R121" s="7" t="n">
         <v>100</v>
@@ -11394,7 +11394,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O122" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P122" s="7" t="n">
         <v>100</v>
@@ -11534,13 +11534,13 @@
         <v>20</v>
       </c>
       <c r="O124" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P124" s="7" t="n">
         <v>60</v>
       </c>
       <c r="Q124" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="R124" s="7" t="n">
         <v>33.3</v>
@@ -11674,13 +11674,13 @@
         <v>58.3</v>
       </c>
       <c r="O126" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="P126" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q126" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R126" s="7" t="n">
         <v>0</v>
@@ -11744,13 +11744,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O127" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P127" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q127" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R127" s="7" t="n">
         <v>50</v>
@@ -11814,7 +11814,7 @@
         <v>62.5</v>
       </c>
       <c r="O128" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P128" s="7" t="n">
         <v>60</v>
@@ -11884,7 +11884,7 @@
         <v>42.9</v>
       </c>
       <c r="O129" s="7" t="n">
-        <v>66.7</v>
+        <v>25</v>
       </c>
       <c r="P129" s="7" t="n">
         <v>33.3</v>
@@ -12024,7 +12024,7 @@
         <v>100</v>
       </c>
       <c r="O131" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P131" s="7" t="n">
         <v>100</v>
@@ -12094,13 +12094,13 @@
         <v>61.9</v>
       </c>
       <c r="O132" s="7" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="P132" s="7" t="n">
         <v>20</v>
       </c>
       <c r="Q132" s="7" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="R132" s="7" t="n">
         <v>100</v>
@@ -12164,13 +12164,13 @@
         <v>60</v>
       </c>
       <c r="O133" s="7" t="n">
-        <v>100</v>
+        <v>42.9</v>
       </c>
       <c r="P133" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q133" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R133" s="7" t="n">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R134" s="7" t="n">
         <v>100</v>
@@ -12374,13 +12374,13 @@
         <v>56.2</v>
       </c>
       <c r="O136" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P136" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q136" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="R136" s="7" t="n">
         <v>66.7</v>
@@ -12444,13 +12444,13 @@
         <v>57.1</v>
       </c>
       <c r="O137" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P137" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q137" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R137" s="7" t="n">
         <v>0</v>
@@ -12514,13 +12514,13 @@
         <v>62.5</v>
       </c>
       <c r="O138" s="7" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="P138" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q138" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R138" s="7" t="n">
         <v>50</v>
@@ -12584,13 +12584,13 @@
         <v>85.7</v>
       </c>
       <c r="O139" s="7" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="P139" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q139" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R139" s="7" t="n">
         <v>66.7</v>
@@ -12654,7 +12654,7 @@
         <v>62.5</v>
       </c>
       <c r="O140" s="7" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="P140" s="7" t="n">
         <v>50</v>
@@ -12794,13 +12794,13 @@
         <v>60</v>
       </c>
       <c r="O142" s="7" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="P142" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q142" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R142" s="7" t="n">
         <v>20</v>
@@ -12864,13 +12864,13 @@
         <v>48.3</v>
       </c>
       <c r="O143" s="7" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="P143" s="7" t="n">
         <v>28.6</v>
       </c>
       <c r="Q143" s="7" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="R143" s="7" t="n">
         <v>75</v>
@@ -12934,7 +12934,7 @@
         <v>55.6</v>
       </c>
       <c r="O144" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P144" s="7" t="n">
         <v>0</v>
@@ -13004,13 +13004,13 @@
         <v>84.59999999999999</v>
       </c>
       <c r="O145" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="P145" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q145" s="7" t="n">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="R145" s="7" t="n">
         <v>100</v>
@@ -13074,13 +13074,13 @@
         <v>100</v>
       </c>
       <c r="O146" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P146" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q146" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R146" s="7" t="n">
         <v>100</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R147" s="7" t="n">
         <v>0</v>
@@ -13214,13 +13214,13 @@
         <v>60</v>
       </c>
       <c r="O148" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P148" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q148" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R148" s="7" t="n">
         <v>0</v>
@@ -13354,13 +13354,13 @@
         <v>45.5</v>
       </c>
       <c r="O150" s="7" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P150" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q150" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="R150" s="7" t="n">
         <v>50</v>
@@ -13424,7 +13424,7 @@
         <v>30</v>
       </c>
       <c r="O151" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P151" s="7" t="n">
         <v>75</v>
@@ -13494,13 +13494,13 @@
         <v>50</v>
       </c>
       <c r="O152" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P152" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q152" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R152" s="7" t="n">
         <v>100</v>
@@ -13564,13 +13564,13 @@
         <v>55.6</v>
       </c>
       <c r="O153" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P153" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q153" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R153" s="7" t="n">
         <v>0</v>
@@ -13640,7 +13640,7 @@
         <v>66.7</v>
       </c>
       <c r="Q154" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R154" s="7" t="n">
         <v>100</v>
@@ -13774,13 +13774,13 @@
         <v>66.7</v>
       </c>
       <c r="O156" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P156" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q156" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R156" s="7" t="n">
         <v>0</v>
@@ -13844,13 +13844,13 @@
         <v>64.7</v>
       </c>
       <c r="O157" s="7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="P157" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q157" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R157" s="7" t="n">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>72.7</v>
       </c>
       <c r="O159" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P159" s="7" t="n">
         <v>50</v>
@@ -14124,13 +14124,13 @@
         <v>59.1</v>
       </c>
       <c r="O161" s="7" t="n">
-        <v>66.7</v>
+        <v>63.6</v>
       </c>
       <c r="P161" s="7" t="n">
         <v>16.7</v>
       </c>
       <c r="Q161" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="R161" s="7" t="n">
         <v>50</v>
@@ -14194,13 +14194,13 @@
         <v>53.8</v>
       </c>
       <c r="O162" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="P162" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q162" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R162" s="7" t="n">
         <v>0</v>
@@ -14264,13 +14264,13 @@
         <v>100</v>
       </c>
       <c r="O163" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P163" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q163" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R163" s="7" t="n">
         <v>100</v>
@@ -14334,13 +14334,13 @@
         <v>62.5</v>
       </c>
       <c r="O164" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="P164" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q164" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R164" s="7" t="n">
         <v>0</v>
@@ -14404,13 +14404,13 @@
         <v>90.5</v>
       </c>
       <c r="O165" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P165" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q165" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R165" s="7" t="n">
         <v>100</v>
@@ -14474,7 +14474,7 @@
         <v>57.1</v>
       </c>
       <c r="O166" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P166" s="7" t="n">
         <v>0</v>
@@ -14544,7 +14544,7 @@
         <v>54.5</v>
       </c>
       <c r="O167" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P167" s="7" t="n">
         <v>0</v>
@@ -14614,13 +14614,13 @@
         <v>60</v>
       </c>
       <c r="O168" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P168" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q168" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R168" s="7" t="n">
         <v>0</v>
@@ -14684,13 +14684,13 @@
         <v>87.5</v>
       </c>
       <c r="O169" s="7" t="n">
-        <v>100</v>
+        <v>62.5</v>
       </c>
       <c r="P169" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q169" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R169" s="7" t="n">
         <v>0</v>
@@ -14754,7 +14754,7 @@
         <v>60</v>
       </c>
       <c r="O170" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P170" s="7" t="n">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>50</v>
       </c>
       <c r="Q171" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R171" s="7" t="n">
         <v>50</v>
@@ -14894,13 +14894,13 @@
         <v>75</v>
       </c>
       <c r="O172" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P172" s="7" t="n">
         <v>75</v>
       </c>
       <c r="Q172" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R172" s="7" t="n">
         <v>75</v>
@@ -14964,13 +14964,13 @@
         <v>45.5</v>
       </c>
       <c r="O173" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P173" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q173" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R173" s="7" t="n">
         <v>100</v>
@@ -15034,13 +15034,13 @@
         <v>75</v>
       </c>
       <c r="O174" s="7" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="P174" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q174" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R174" s="7" t="n">
         <v>100</v>
@@ -15104,13 +15104,13 @@
         <v>51.6</v>
       </c>
       <c r="O175" s="7" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="P175" s="7" t="n">
         <v>22.2</v>
       </c>
       <c r="Q175" s="7" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="R175" s="7" t="n">
         <v>33.3</v>
@@ -15174,13 +15174,13 @@
         <v>66.7</v>
       </c>
       <c r="O176" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P176" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q176" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R176" s="7" t="n">
         <v>100</v>
@@ -15244,13 +15244,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O177" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P177" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q177" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R177" s="7" t="n">
         <v>100</v>
@@ -15320,7 +15320,7 @@
         <v>50</v>
       </c>
       <c r="Q178" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R178" s="7" t="n">
         <v>50</v>
@@ -15384,13 +15384,13 @@
         <v>82.40000000000001</v>
       </c>
       <c r="O179" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P179" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q179" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R179" s="7" t="n">
         <v>100</v>
@@ -15454,13 +15454,13 @@
         <v>52.4</v>
       </c>
       <c r="O180" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P180" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q180" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="R180" s="7" t="n">
         <v>50</v>
@@ -15524,13 +15524,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O181" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P181" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q181" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R181" s="7" t="n">
         <v>100</v>
@@ -15594,13 +15594,13 @@
         <v>60</v>
       </c>
       <c r="O182" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P182" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q182" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="R182" s="7" t="n">
         <v>100</v>
@@ -15734,7 +15734,7 @@
         <v>44.4</v>
       </c>
       <c r="O184" s="7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P184" s="7" t="n">
         <v>20</v>
@@ -15874,7 +15874,7 @@
         <v>100</v>
       </c>
       <c r="O186" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P186" s="7" t="n">
         <v>100</v>
@@ -15944,13 +15944,13 @@
         <v>73.7</v>
       </c>
       <c r="O187" s="7" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="P187" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q187" s="7" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="R187" s="7" t="n">
         <v>0</v>
@@ -16014,7 +16014,7 @@
         <v>75</v>
       </c>
       <c r="O188" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P188" s="7" t="n">
         <v>100</v>
@@ -16084,13 +16084,13 @@
         <v>85</v>
       </c>
       <c r="O189" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P189" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q189" s="7" t="n">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="R189" s="7" t="n">
         <v>100</v>
@@ -16154,7 +16154,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="O190" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="P190" s="7" t="n">
         <v>100</v>
@@ -16294,13 +16294,13 @@
         <v>75</v>
       </c>
       <c r="O192" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P192" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q192" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R192" s="7" t="n">
         <v>100</v>
@@ -16364,7 +16364,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="O193" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P193" s="7" t="n">
         <v>100</v>
@@ -16434,7 +16434,7 @@
         <v>33.3</v>
       </c>
       <c r="O194" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P194" s="7" t="n">
         <v>33.3</v>
@@ -16574,13 +16574,13 @@
         <v>66.7</v>
       </c>
       <c r="O196" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P196" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q196" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R196" s="7" t="n">
         <v>0</v>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="Q197" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R197" s="7" t="n">
         <v>0</v>
@@ -16714,13 +16714,13 @@
         <v>75</v>
       </c>
       <c r="O198" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P198" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q198" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R198" s="7" t="n">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>100</v>
       </c>
       <c r="O199" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P199" s="7" t="n">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="Q201" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R201" s="7" t="n">
         <v>0</v>
@@ -16994,13 +16994,13 @@
         <v>62.5</v>
       </c>
       <c r="O202" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P202" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q202" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R202" s="7" t="n">
         <v>0</v>
@@ -17064,13 +17064,13 @@
         <v>58.3</v>
       </c>
       <c r="O203" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P203" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q203" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R203" s="7" t="n">
         <v>50</v>
@@ -17134,13 +17134,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O204" s="7" t="n">
-        <v>50</v>
+        <v>42.9</v>
       </c>
       <c r="P204" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q204" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="R204" s="7" t="n">
         <v>0</v>
@@ -17204,7 +17204,7 @@
         <v>57.1</v>
       </c>
       <c r="O205" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P205" s="7" t="n">
         <v>0</v>
@@ -17274,13 +17274,13 @@
         <v>76.5</v>
       </c>
       <c r="O206" s="7" t="n">
-        <v>100</v>
+        <v>57.1</v>
       </c>
       <c r="P206" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q206" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R206" s="7" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="Q207" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R207" s="7" t="n">
         <v>100</v>
@@ -17414,13 +17414,13 @@
         <v>70</v>
       </c>
       <c r="O208" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P208" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q208" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R208" s="7" t="n">
         <v>0</v>
@@ -17490,7 +17490,7 @@
         <v>50</v>
       </c>
       <c r="Q209" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R209" s="7" t="n">
         <v>50</v>
@@ -17694,13 +17694,13 @@
         <v>50</v>
       </c>
       <c r="O212" s="7" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="P212" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q212" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="R212" s="7" t="n">
         <v>100</v>
@@ -17764,13 +17764,13 @@
         <v>66.7</v>
       </c>
       <c r="O213" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P213" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q213" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R213" s="7" t="n">
         <v>100</v>
@@ -17904,7 +17904,7 @@
         <v>75</v>
       </c>
       <c r="O215" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P215" s="7" t="n">
         <v>0</v>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="Q216" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R216" s="7" t="n">
         <v>0</v>
@@ -18044,13 +18044,13 @@
         <v>64.7</v>
       </c>
       <c r="O217" s="7" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="P217" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q217" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R217" s="7" t="n">
         <v>100</v>
@@ -18114,7 +18114,7 @@
         <v>28.6</v>
       </c>
       <c r="O218" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P218" s="7" t="n">
         <v>50</v>
@@ -18254,13 +18254,13 @@
         <v>40</v>
       </c>
       <c r="O220" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P220" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q220" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R220" s="7" t="n">
         <v>100</v>
@@ -18324,13 +18324,13 @@
         <v>79.2</v>
       </c>
       <c r="O221" s="7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P221" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q221" s="7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R221" s="7" t="n">
         <v>100</v>
@@ -18394,7 +18394,7 @@
         <v>75</v>
       </c>
       <c r="O222" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>0</v>
@@ -18464,7 +18464,7 @@
         <v>40</v>
       </c>
       <c r="O223" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>0</v>
@@ -18534,13 +18534,13 @@
         <v>83.3</v>
       </c>
       <c r="O224" s="7" t="n">
-        <v>0</v>
+        <v>55.6</v>
       </c>
       <c r="P224" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q224" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R224" s="7" t="n">
         <v>0</v>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="Q225" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R225" s="7" t="n">
         <v>100</v>
@@ -18750,7 +18750,7 @@
         <v>50</v>
       </c>
       <c r="Q227" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R227" s="7" t="n">
         <v>0</v>
@@ -18884,7 +18884,7 @@
         <v>66.7</v>
       </c>
       <c r="O229" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P229" s="7" t="n">
         <v>0</v>
@@ -18960,7 +18960,7 @@
         <v>100</v>
       </c>
       <c r="Q230" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R230" s="7" t="n">
         <v>0</v>
@@ -19094,13 +19094,13 @@
         <v>100</v>
       </c>
       <c r="O232" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P232" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q232" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R232" s="7" t="n">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="Q233" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R233" s="7" t="n">
         <v>0</v>
@@ -19304,7 +19304,7 @@
         <v>40</v>
       </c>
       <c r="O235" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P235" s="7" t="n">
         <v>100</v>
@@ -19374,13 +19374,13 @@
         <v>80</v>
       </c>
       <c r="O236" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P236" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q236" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R236" s="7" t="n">
         <v>0</v>
@@ -19514,13 +19514,13 @@
         <v>57.9</v>
       </c>
       <c r="O238" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P238" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q238" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R238" s="7" t="n">
         <v>0</v>
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="Q239" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R239" s="7" t="n">
         <v>100</v>
@@ -19724,13 +19724,13 @@
         <v>63.2</v>
       </c>
       <c r="O241" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P241" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q241" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="R241" s="7" t="n">
         <v>60</v>
@@ -19794,13 +19794,13 @@
         <v>80</v>
       </c>
       <c r="O242" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P242" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q242" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R242" s="7" t="n">
         <v>0</v>
@@ -19864,7 +19864,7 @@
         <v>33.3</v>
       </c>
       <c r="O243" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P243" s="7" t="n">
         <v>0</v>
@@ -19940,7 +19940,7 @@
         <v>0</v>
       </c>
       <c r="Q244" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R244" s="7" t="n">
         <v>0</v>
@@ -20004,7 +20004,7 @@
         <v>62.5</v>
       </c>
       <c r="O245" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P245" s="7" t="n">
         <v>0</v>
@@ -20074,7 +20074,7 @@
         <v>33.3</v>
       </c>
       <c r="O246" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P246" s="7" t="n">
         <v>0</v>
@@ -20144,13 +20144,13 @@
         <v>62.1</v>
       </c>
       <c r="O247" s="7" t="n">
-        <v>50</v>
+        <v>30.8</v>
       </c>
       <c r="P247" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q247" s="7" t="n">
-        <v>100</v>
+        <v>57.1</v>
       </c>
       <c r="R247" s="7" t="n">
         <v>33.3</v>
@@ -20284,13 +20284,13 @@
         <v>100</v>
       </c>
       <c r="O249" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P249" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q249" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R249" s="7" t="n">
         <v>0</v>
@@ -20354,13 +20354,13 @@
         <v>50</v>
       </c>
       <c r="O250" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P250" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q250" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R250" s="7" t="n">
         <v>0</v>
@@ -20424,7 +20424,7 @@
         <v>60</v>
       </c>
       <c r="O251" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P251" s="7" t="n">
         <v>0</v>
@@ -20494,13 +20494,13 @@
         <v>42.1</v>
       </c>
       <c r="O252" s="7" t="n">
-        <v>50</v>
+        <v>18.2</v>
       </c>
       <c r="P252" s="7" t="n">
         <v>14.3</v>
       </c>
       <c r="Q252" s="7" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="R252" s="7" t="n">
         <v>83.3</v>
@@ -20564,13 +20564,13 @@
         <v>53.8</v>
       </c>
       <c r="O253" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P253" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q253" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R253" s="7" t="n">
         <v>50</v>
@@ -20704,13 +20704,13 @@
         <v>38.5</v>
       </c>
       <c r="O255" s="7" t="n">
-        <v>100</v>
+        <v>22.2</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q255" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="R255" s="7" t="n">
         <v>50</v>
@@ -20780,7 +20780,7 @@
         <v>0</v>
       </c>
       <c r="Q256" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R256" s="7" t="n">
         <v>0</v>
@@ -20844,7 +20844,7 @@
         <v>50</v>
       </c>
       <c r="O257" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P257" s="7" t="n">
         <v>0</v>
@@ -20984,13 +20984,13 @@
         <v>62.5</v>
       </c>
       <c r="O259" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P259" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q259" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R259" s="7" t="n">
         <v>50</v>
@@ -21054,7 +21054,7 @@
         <v>50</v>
       </c>
       <c r="O260" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P260" s="7" t="n">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>72.7</v>
       </c>
       <c r="O261" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P261" s="7" t="n">
         <v>33.3</v>
@@ -21334,13 +21334,13 @@
         <v>53.3</v>
       </c>
       <c r="O264" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P264" s="7" t="n">
         <v>40</v>
       </c>
       <c r="Q264" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R264" s="7" t="n">
         <v>100</v>
@@ -21404,13 +21404,13 @@
         <v>62.5</v>
       </c>
       <c r="O265" s="7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P265" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q265" s="7" t="n">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
       <c r="R265" s="7" t="n">
         <v>50</v>
@@ -21474,13 +21474,13 @@
         <v>66.7</v>
       </c>
       <c r="O266" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P266" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q266" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R266" s="7" t="n">
         <v>0</v>
@@ -21544,13 +21544,13 @@
         <v>66.7</v>
       </c>
       <c r="O267" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P267" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q267" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R267" s="7" t="n">
         <v>0</v>
@@ -21684,13 +21684,13 @@
         <v>75</v>
       </c>
       <c r="O269" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P269" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q269" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R269" s="7" t="n">
         <v>100</v>
@@ -21894,7 +21894,7 @@
         <v>50</v>
       </c>
       <c r="O272" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P272" s="7" t="n">
         <v>0</v>
@@ -21964,7 +21964,7 @@
         <v>66.7</v>
       </c>
       <c r="O273" s="7" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="P273" s="7" t="n">
         <v>0</v>
@@ -22104,7 +22104,7 @@
         <v>100</v>
       </c>
       <c r="O275" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P275" s="7" t="n">
         <v>0</v>
@@ -22250,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="Q277" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R277" s="7" t="n">
         <v>0</v>
@@ -22384,13 +22384,13 @@
         <v>66.7</v>
       </c>
       <c r="O279" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P279" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q279" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R279" s="7" t="n">
         <v>0</v>
@@ -22454,13 +22454,13 @@
         <v>35.3</v>
       </c>
       <c r="O280" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P280" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q280" s="7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="R280" s="7" t="n">
         <v>100</v>
@@ -22524,13 +22524,13 @@
         <v>77.8</v>
       </c>
       <c r="O281" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P281" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q281" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R281" s="7" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>90</v>
       </c>
       <c r="O282" s="7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P282" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q282" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R282" s="7" t="n">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>50</v>
       </c>
       <c r="O286" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P286" s="7" t="n">
         <v>50</v>
@@ -23014,7 +23014,7 @@
         <v>75</v>
       </c>
       <c r="O288" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P288" s="7" t="n">
         <v>100</v>
@@ -23090,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="Q289" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R289" s="7" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>25</v>
       </c>
       <c r="O291" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P291" s="7" t="n">
         <v>0</v>
@@ -23364,7 +23364,7 @@
         <v>60</v>
       </c>
       <c r="O293" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>0</v>
@@ -23434,13 +23434,13 @@
         <v>90.90000000000001</v>
       </c>
       <c r="O294" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q294" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R294" s="7" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>90</v>
       </c>
       <c r="O295" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P295" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q295" s="7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R295" s="7" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>100</v>
       </c>
       <c r="O296" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>100</v>
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="Q297" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R297" s="7" t="n">
         <v>100</v>
@@ -23714,13 +23714,13 @@
         <v>47.4</v>
       </c>
       <c r="O298" s="7" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="P298" s="7" t="n">
         <v>25</v>
       </c>
       <c r="Q298" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R298" s="7" t="n">
         <v>33.3</v>
@@ -23784,7 +23784,7 @@
         <v>66.7</v>
       </c>
       <c r="O299" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P299" s="7" t="n">
         <v>0</v>
@@ -23854,13 +23854,13 @@
         <v>50</v>
       </c>
       <c r="O300" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P300" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q300" s="7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R300" s="7" t="n">
         <v>0</v>
@@ -23994,13 +23994,13 @@
         <v>50</v>
       </c>
       <c r="O302" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P302" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q302" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R302" s="7" t="n">
         <v>0</v>
@@ -24134,13 +24134,13 @@
         <v>70</v>
       </c>
       <c r="O304" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P304" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q304" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R304" s="7" t="n">
         <v>100</v>
@@ -24344,13 +24344,13 @@
         <v>46.7</v>
       </c>
       <c r="O307" s="7" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="P307" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q307" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R307" s="7" t="n">
         <v>0</v>
@@ -24484,13 +24484,13 @@
         <v>75</v>
       </c>
       <c r="O309" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P309" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q309" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R309" s="7" t="n">
         <v>0</v>
@@ -24554,13 +24554,13 @@
         <v>100</v>
       </c>
       <c r="O310" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P310" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q310" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R310" s="7" t="n">
         <v>100</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q311" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R311" s="7" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>100</v>
       </c>
       <c r="O312" s="7" t="n">
-        <v>66.7</v>
+        <v>75</v>
       </c>
       <c r="P312" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q312" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R312" s="7" t="n">
         <v>100</v>
@@ -24764,13 +24764,13 @@
         <v>64.3</v>
       </c>
       <c r="O313" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P313" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q313" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R313" s="7" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="Q318" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R318" s="7" t="n">
         <v>0</v>
@@ -25254,7 +25254,7 @@
         <v>66.7</v>
       </c>
       <c r="O320" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P320" s="7" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>37.5</v>
       </c>
       <c r="O321" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P321" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q321" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R321" s="7" t="n">
         <v>50</v>
@@ -25464,13 +25464,13 @@
         <v>50</v>
       </c>
       <c r="O323" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="P323" s="7" t="n">
         <v>66.7</v>
       </c>
       <c r="Q323" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R323" s="7" t="n">
         <v>100</v>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q324" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R324" s="7" t="n">
         <v>0</v>
@@ -25674,13 +25674,13 @@
         <v>75</v>
       </c>
       <c r="O326" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P326" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q326" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R326" s="7" t="n">
         <v>0</v>
@@ -25744,7 +25744,7 @@
         <v>66.7</v>
       </c>
       <c r="O327" s="7" t="n">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="P327" s="7" t="n">
         <v>0</v>
@@ -25814,13 +25814,13 @@
         <v>50</v>
       </c>
       <c r="O328" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P328" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q328" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R328" s="7" t="n">
         <v>0</v>
@@ -25890,7 +25890,7 @@
         <v>0</v>
       </c>
       <c r="Q329" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R329" s="7" t="n">
         <v>100</v>
@@ -25954,13 +25954,13 @@
         <v>100</v>
       </c>
       <c r="O330" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P330" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q330" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R330" s="7" t="n">
         <v>100</v>
@@ -26024,13 +26024,13 @@
         <v>47.1</v>
       </c>
       <c r="O331" s="7" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="P331" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q331" s="7" t="n">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="R331" s="7" t="n">
         <v>100</v>
@@ -26170,7 +26170,7 @@
         <v>0</v>
       </c>
       <c r="Q333" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R333" s="7" t="n">
         <v>0</v>
@@ -26234,13 +26234,13 @@
         <v>50</v>
       </c>
       <c r="O334" s="7" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="P334" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q334" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R334" s="7" t="n">
         <v>0</v>
@@ -26310,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="Q335" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R335" s="7" t="n">
         <v>0</v>
@@ -26654,13 +26654,13 @@
         <v>54.5</v>
       </c>
       <c r="O340" s="7" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="P340" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q340" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R340" s="7" t="n">
         <v>100</v>
@@ -26730,7 +26730,7 @@
         <v>0</v>
       </c>
       <c r="Q341" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R341" s="7" t="n">
         <v>0</v>
@@ -26794,13 +26794,13 @@
         <v>58.3</v>
       </c>
       <c r="O342" s="7" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="P342" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q342" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R342" s="7" t="n">
         <v>33.3</v>
@@ -26864,13 +26864,13 @@
         <v>75</v>
       </c>
       <c r="O343" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P343" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q343" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R343" s="7" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>37.5</v>
       </c>
       <c r="O344" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P344" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q344" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R344" s="7" t="n">
         <v>50</v>
@@ -27074,7 +27074,7 @@
         <v>100</v>
       </c>
       <c r="O346" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P346" s="7" t="n">
         <v>100</v>
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="Q349" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R349" s="7" t="n">
         <v>0</v>
@@ -27360,7 +27360,7 @@
         <v>0</v>
       </c>
       <c r="Q350" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R350" s="7" t="n">
         <v>0</v>
@@ -27564,7 +27564,7 @@
         <v>100</v>
       </c>
       <c r="O353" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P353" s="7" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>100</v>
       </c>
       <c r="O355" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P355" s="7" t="n">
         <v>0</v>
@@ -27844,13 +27844,13 @@
         <v>54.5</v>
       </c>
       <c r="O357" s="7" t="n">
-        <v>50</v>
+        <v>16.7</v>
       </c>
       <c r="P357" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q357" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R357" s="7" t="n">
         <v>33.3</v>
@@ -27920,7 +27920,7 @@
         <v>0</v>
       </c>
       <c r="Q358" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R358" s="7" t="n">
         <v>0</v>
@@ -27984,7 +27984,7 @@
         <v>50</v>
       </c>
       <c r="O359" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P359" s="7" t="n">
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>100</v>
       </c>
       <c r="Q360" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R360" s="7" t="n">
         <v>0</v>
@@ -28270,7 +28270,7 @@
         <v>50</v>
       </c>
       <c r="Q363" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R363" s="7" t="n">
         <v>0</v>
@@ -28334,7 +28334,7 @@
         <v>44.4</v>
       </c>
       <c r="O364" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P364" s="7" t="n">
         <v>0</v>
@@ -28410,7 +28410,7 @@
         <v>0</v>
       </c>
       <c r="Q365" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R365" s="7" t="n">
         <v>0</v>
@@ -28474,13 +28474,13 @@
         <v>80</v>
       </c>
       <c r="O366" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P366" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q366" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R366" s="7" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>36.4</v>
       </c>
       <c r="O368" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P368" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q368" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R368" s="7" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>75</v>
       </c>
       <c r="O370" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P370" s="7" t="n">
         <v>100</v>
@@ -28894,7 +28894,7 @@
         <v>100</v>
       </c>
       <c r="O372" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P372" s="7" t="n">
         <v>0</v>
@@ -29034,13 +29034,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O374" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P374" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q374" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R374" s="7" t="n">
         <v>50</v>
@@ -29104,13 +29104,13 @@
         <v>63.6</v>
       </c>
       <c r="O375" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P375" s="7" t="n">
         <v>33.3</v>
       </c>
       <c r="Q375" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R375" s="7" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>42.9</v>
       </c>
       <c r="O376" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P376" s="7" t="n">
         <v>66.7</v>
@@ -29314,7 +29314,7 @@
         <v>66.7</v>
       </c>
       <c r="O378" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P378" s="7" t="n">
         <v>0</v>
@@ -29454,13 +29454,13 @@
         <v>50</v>
       </c>
       <c r="O380" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P380" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q380" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R380" s="7" t="n">
         <v>75</v>
@@ -29524,7 +29524,7 @@
         <v>100</v>
       </c>
       <c r="O381" s="7" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="P381" s="7" t="n">
         <v>100</v>
@@ -29734,7 +29734,7 @@
         <v>100</v>
       </c>
       <c r="O384" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P384" s="7" t="n">
         <v>0</v>
@@ -29804,7 +29804,7 @@
         <v>66.7</v>
       </c>
       <c r="O385" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P385" s="7" t="n">
         <v>0</v>
@@ -29880,7 +29880,7 @@
         <v>50</v>
       </c>
       <c r="Q386" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R386" s="7" t="n">
         <v>0</v>
@@ -30014,13 +30014,13 @@
         <v>100</v>
       </c>
       <c r="O388" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P388" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q388" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R388" s="7" t="n">
         <v>100</v>
@@ -30154,13 +30154,13 @@
         <v>100</v>
       </c>
       <c r="O390" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P390" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q390" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R390" s="7" t="n">
         <v>0</v>
@@ -30224,13 +30224,13 @@
         <v>62.5</v>
       </c>
       <c r="O391" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="P391" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q391" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R391" s="7" t="n">
         <v>100</v>
@@ -30294,13 +30294,13 @@
         <v>62.5</v>
       </c>
       <c r="O392" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P392" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q392" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R392" s="7" t="n">
         <v>0</v>
@@ -30364,7 +30364,7 @@
         <v>75</v>
       </c>
       <c r="O393" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P393" s="7" t="n">
         <v>0</v>
@@ -30504,13 +30504,13 @@
         <v>54.5</v>
       </c>
       <c r="O395" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P395" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q395" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R395" s="7" t="n">
         <v>0</v>
@@ -30574,7 +30574,7 @@
         <v>66.7</v>
       </c>
       <c r="O396" s="7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="P396" s="7" t="n">
         <v>50</v>
@@ -30784,13 +30784,13 @@
         <v>80</v>
       </c>
       <c r="O399" s="7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P399" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q399" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R399" s="7" t="n">
         <v>0</v>
@@ -30994,7 +30994,7 @@
         <v>100</v>
       </c>
       <c r="O402" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P402" s="7" t="n">
         <v>0</v>
@@ -31064,7 +31064,7 @@
         <v>66.7</v>
       </c>
       <c r="O403" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P403" s="7" t="n">
         <v>0</v>
@@ -31134,13 +31134,13 @@
         <v>66.7</v>
       </c>
       <c r="O404" s="7" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="P404" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q404" s="7" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="R404" s="7" t="n">
         <v>0</v>
@@ -31204,7 +31204,7 @@
         <v>80</v>
       </c>
       <c r="O405" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P405" s="7" t="n">
         <v>0</v>
@@ -31344,13 +31344,13 @@
         <v>80</v>
       </c>
       <c r="O407" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P407" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q407" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="R407" s="7" t="n">
         <v>0</v>
@@ -31420,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="Q408" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R408" s="7" t="n">
         <v>100</v>
@@ -31484,13 +31484,13 @@
         <v>100</v>
       </c>
       <c r="O409" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P409" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q409" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R409" s="7" t="n">
         <v>0</v>
@@ -31560,7 +31560,7 @@
         <v>0</v>
       </c>
       <c r="Q410" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R410" s="7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>66.7</v>
       </c>
       <c r="O411" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P411" s="7" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>0</v>
       </c>
       <c r="Q412" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R412" s="7" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>100</v>
       </c>
       <c r="O414" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P414" s="7" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>100</v>
       </c>
       <c r="Q415" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R415" s="7" t="n">
         <v>0</v>
@@ -31980,7 +31980,7 @@
         <v>0</v>
       </c>
       <c r="Q416" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R416" s="7" t="n">
         <v>0</v>
@@ -32464,13 +32464,13 @@
         <v>66.7</v>
       </c>
       <c r="O423" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P423" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q423" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R423" s="7" t="n">
         <v>0</v>
@@ -32534,13 +32534,13 @@
         <v>100</v>
       </c>
       <c r="O424" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P424" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q424" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R424" s="7" t="n">
         <v>0</v>
@@ -32744,13 +32744,13 @@
         <v>100</v>
       </c>
       <c r="O427" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P427" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q427" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R427" s="7" t="n">
         <v>0</v>
@@ -32814,7 +32814,7 @@
         <v>11.1</v>
       </c>
       <c r="O428" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P428" s="7" t="n">
         <v>60</v>
@@ -33030,7 +33030,7 @@
         <v>0</v>
       </c>
       <c r="Q431" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R431" s="7" t="n">
         <v>0</v>
@@ -33094,7 +33094,7 @@
         <v>75</v>
       </c>
       <c r="O432" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P432" s="7" t="n">
         <v>0</v>
@@ -33164,13 +33164,13 @@
         <v>72.2</v>
       </c>
       <c r="O433" s="7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P433" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q433" s="7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R433" s="7" t="n">
         <v>0</v>
@@ -33234,7 +33234,7 @@
         <v>100</v>
       </c>
       <c r="O434" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P434" s="7" t="n">
         <v>100</v>
@@ -33724,13 +33724,13 @@
         <v>50</v>
       </c>
       <c r="O441" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P441" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q441" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R441" s="7" t="n">
         <v>0</v>
@@ -33870,7 +33870,7 @@
         <v>0</v>
       </c>
       <c r="Q443" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R443" s="7" t="n">
         <v>0</v>
@@ -34074,7 +34074,7 @@
         <v>50</v>
       </c>
       <c r="O446" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P446" s="7" t="n">
         <v>100</v>
@@ -34354,13 +34354,13 @@
         <v>100</v>
       </c>
       <c r="O450" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P450" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q450" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R450" s="7" t="n">
         <v>0</v>
@@ -34494,13 +34494,13 @@
         <v>50</v>
       </c>
       <c r="O452" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P452" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q452" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R452" s="7" t="n">
         <v>0</v>
@@ -34570,7 +34570,7 @@
         <v>0</v>
       </c>
       <c r="Q453" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R453" s="7" t="n">
         <v>0</v>
@@ -35054,13 +35054,13 @@
         <v>100</v>
       </c>
       <c r="O460" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P460" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q460" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R460" s="7" t="n">
         <v>100</v>
@@ -35124,13 +35124,13 @@
         <v>100</v>
       </c>
       <c r="O461" s="7" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="P461" s="7" t="n">
         <v>100</v>
       </c>
       <c r="Q461" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R461" s="7" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>50</v>
       </c>
       <c r="O463" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P463" s="7" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>50</v>
       </c>
       <c r="O466" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P466" s="7" t="n">
         <v>0</v>
@@ -35754,13 +35754,13 @@
         <v>100</v>
       </c>
       <c r="O470" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P470" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q470" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R470" s="7" t="n">
         <v>0</v>
@@ -35894,13 +35894,13 @@
         <v>100</v>
       </c>
       <c r="O472" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P472" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q472" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R472" s="7" t="n">
         <v>0</v>
@@ -36174,7 +36174,7 @@
         <v>100</v>
       </c>
       <c r="O476" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P476" s="7" t="n">
         <v>0</v>
@@ -36314,13 +36314,13 @@
         <v>66.7</v>
       </c>
       <c r="O478" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P478" s="7" t="n">
         <v>50</v>
       </c>
       <c r="Q478" s="7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R478" s="7" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>85.7</v>
       </c>
       <c r="O480" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P480" s="7" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="Q482" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R482" s="7" t="n">
         <v>0</v>
@@ -36880,7 +36880,7 @@
         <v>100</v>
       </c>
       <c r="Q486" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R486" s="7" t="n">
         <v>0</v>
@@ -37020,7 +37020,7 @@
         <v>0</v>
       </c>
       <c r="Q488" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R488" s="7" t="n">
         <v>0</v>
@@ -38274,7 +38274,7 @@
         <v>50</v>
       </c>
       <c r="O506" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P506" s="7" t="n">
         <v>0</v>
@@ -38904,7 +38904,7 @@
         <v>100</v>
       </c>
       <c r="O515" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P515" s="7" t="n">
         <v>0</v>
@@ -39120,7 +39120,7 @@
         <v>0</v>
       </c>
       <c r="Q518" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R518" s="7" t="n">
         <v>0</v>
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="Q520" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R520" s="7" t="n">
         <v>0</v>
@@ -39464,7 +39464,7 @@
         <v>100</v>
       </c>
       <c r="O523" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P523" s="7" t="n">
         <v>0</v>
@@ -39674,7 +39674,7 @@
         <v>100</v>
       </c>
       <c r="O526" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P526" s="7" t="n">
         <v>0</v>
@@ -41010,7 +41010,7 @@
         <v>0</v>
       </c>
       <c r="Q545" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R545" s="7" t="n">
         <v>0</v>
@@ -41214,7 +41214,7 @@
         <v>100</v>
       </c>
       <c r="O548" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P548" s="7" t="n">
         <v>0</v>
@@ -42054,7 +42054,7 @@
         <v>66.7</v>
       </c>
       <c r="O560" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P560" s="7" t="n">
         <v>0</v>
